--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>郑良杰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色账号设置性能优化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +875,7 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1208,17 +1216,37 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42619</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="16">
+        <v>42619</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>

--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.1 新特性|Fix Bug'!$A$1:$S$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>房东PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息模块优化</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="16">
-        <v>42619</v>
+        <v>42622</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="24" t="s">
@@ -1258,17 +1262,37 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="16">
+        <v>42622</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="16">
+        <v>42622</v>
+      </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="24"/>
       <c r="N9" s="16"/>

--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -184,18 +184,6 @@
   </si>
   <si>
     <t>郑良杰</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色账号设置性能优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息模块优化</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -876,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T190"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,37 +1208,17 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="16">
-        <v>42619</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="16">
-        <v>42622</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>
@@ -1262,37 +1230,17 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="16">
-        <v>42622</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="16">
-        <v>42622</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="24"/>
       <c r="N9" s="16"/>
@@ -1310,7 +1258,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
       <c r="J10" s="24"/>
@@ -1766,94 +1714,92 @@
       <c r="T30" s="29"/>
     </row>
     <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="24"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="19"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="28"/>
+      <c r="S31" s="19"/>
       <c r="T31" s="29"/>
     </row>
     <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="24"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="19"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="19"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="19"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="29"/>
-    </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
+      <c r="S33" s="22"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="19"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="29"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -1874,7 +1820,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -1895,7 +1841,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -1916,7 +1862,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1937,7 +1883,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1958,7 +1904,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -1979,7 +1925,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2000,7 +1946,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2021,7 +1967,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2042,7 +1988,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2063,7 +2009,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2084,7 +2030,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2105,7 +2051,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2126,7 +2072,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2971,7 +2917,7 @@
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
       <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="23"/>
       <c r="G88" s="21"/>
       <c r="H88" s="23"/>
@@ -2992,7 +2938,7 @@
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="23"/>
       <c r="G89" s="21"/>
       <c r="H89" s="23"/>
@@ -3092,11 +3038,11 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="15"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="21"/>
       <c r="F94" s="23"/>
       <c r="G94" s="21"/>
@@ -3113,11 +3059,11 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="15"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="23"/>
       <c r="G95" s="21"/>
@@ -4368,9 +4314,6 @@
       <c r="M154" s="21"/>
       <c r="N154" s="23"/>
       <c r="O154" s="22"/>
-      <c r="P154" s="21"/>
-      <c r="Q154" s="21"/>
-      <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.15">
@@ -4389,9 +4332,6 @@
       <c r="M155" s="21"/>
       <c r="N155" s="23"/>
       <c r="O155" s="22"/>
-      <c r="P155" s="21"/>
-      <c r="Q155" s="21"/>
-      <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.15">
@@ -4987,42 +4927,6 @@
       <c r="N188" s="23"/>
       <c r="O188" s="22"/>
       <c r="S188" s="22"/>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="23"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="21"/>
-      <c r="K189" s="21"/>
-      <c r="L189" s="21"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-      <c r="S189" s="22"/>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="23"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-      <c r="S190" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S2"/>

--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -184,6 +179,26 @@
   </si>
   <si>
     <t>郑良杰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +882,7 @@
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="O2" sqref="O2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,10 +1000,18 @@
       <c r="K2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="L2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42626</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -1027,10 +1050,18 @@
       <c r="K3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42626</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1071,10 +1102,18 @@
       <c r="K4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="L4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42626</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1113,10 +1152,18 @@
       <c r="K5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="L5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42626</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1155,10 +1202,18 @@
       <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="L6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42626</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1197,10 +1252,18 @@
       <c r="K7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="L7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42626</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
